--- a/results/Dashboard - Single_Vehicle.xlsx
+++ b/results/Dashboard - Single_Vehicle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TfL-Dataset\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B67960-BDAA-4747-AB24-02F3D8391405}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26359529-9710-4FC8-9BBD-25E57C4DA3F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E497BC3E-CC42-4FF6-8B84-CE96713D8523}"/>
   </bookViews>
@@ -164,6 +164,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -389,6 +392,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,21 +401,49 @@
   </cellStyles>
   <dxfs count="22">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <numFmt numFmtId="169" formatCode="0.0000"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -418,57 +451,11 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -2046,7 +2033,7 @@
             <c:numRef>
               <c:f>Dashboard!$M$9:$M$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5.9999999999999995E-4</c:v>
@@ -2278,7 +2265,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4111,8 +4098,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
@@ -4120,7 +4107,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4934,11 +4921,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D9B10F53-8D9A-4755-9009-05BB40DA3F46}" name="Table3" displayName="Table3" ref="L8:N13" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D9B10F53-8D9A-4755-9009-05BB40DA3F46}" name="Table3" displayName="Table3" ref="L8:N13" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
   <autoFilter ref="L8:N13" xr:uid="{8F0C4FF7-C0F6-4F7B-8767-9F4C81B8B270}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1DA1E1B5-0258-4062-A798-C459070F358C}" name="Model" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{95C608B0-650C-4C89-BACB-C11BB3E779E7}" name="NOx-RMSE" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1DA1E1B5-0258-4062-A798-C459070F358C}" name="Model" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{95C608B0-650C-4C89-BACB-C11BB3E779E7}" name="NOx-RMSE" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{B78EBA67-F76B-4A84-AF2E-71167E2023A8}" name="NOX-R2" dataDxfId="1" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5257,7 +5244,7 @@
   <dimension ref="B24:D42"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:D30"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6739,7 +6726,7 @@
   <dimension ref="D6:N13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6825,7 +6812,7 @@
       <c r="L9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="17">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="N9" s="10">
@@ -6854,7 +6841,7 @@
       <c r="L10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="17">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="N10" s="10">
@@ -6883,7 +6870,7 @@
       <c r="L11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="17">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="N11" s="10">
@@ -6912,7 +6899,7 @@
       <c r="L12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="17">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="N12" s="10">
@@ -6941,7 +6928,7 @@
       <c r="L13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="18">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="N13" s="13">
